--- a/01_Input/00_CO Validation/Argentina - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Argentina - Energy Projects.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="232" documentId="11_23CC2BB3681120A4BF81F9CCE04A2B2A088E2838" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{865EA992-5E21-4661-952A-D3F9B4CA51B5}"/>
+  <xr:revisionPtr revIDLastSave="237" documentId="11_23CC2BB3681120A4BF81F9CCE04A2B2A088E2838" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AD75E82-A162-4527-8997-1D67BFAE2C19}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (2)" sheetId="3" r:id="rId1"/>
@@ -14,6 +14,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
   <si>
     <t>Project ID</t>
   </si>
@@ -108,9 +111,6 @@
   </si>
   <si>
     <t>VF</t>
-  </si>
-  <si>
-    <t>For the first set of projects (the ones with project IDs), please provide in the Notes an estimate for the total number of direct/indirect beneficiaries, with a brief justification.</t>
   </si>
   <si>
     <t>Renewable Energy</t>
@@ -170,6 +170,9 @@
     <t>GEF</t>
   </si>
   <si>
+    <t>missing-ARG-1</t>
+  </si>
+  <si>
     <t>Programa de abastecimiento de energía eléctrica a partir de fuentes renovables. Round 3</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
   </si>
   <si>
     <t>Non-VF</t>
+  </si>
+  <si>
+    <t>missing-ARG-2</t>
   </si>
   <si>
     <t xml:space="preserve">Programa de Uso Racional y Eficiente de la Energía (PROUREE) in Public buildings. </t>
@@ -616,51 +622,51 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -969,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D49CC08-9FC3-4E60-A881-BEAD0496C730}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1019,7 +1025,7 @@
       <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="5" t="s">
@@ -1073,16 +1079,14 @@
         <v>24</v>
       </c>
       <c r="K2" s="21"/>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="36" t="s">
-        <v>26</v>
-      </c>
+      <c r="M2" s="23"/>
       <c r="N2" s="21"/>
       <c r="O2" s="21"/>
       <c r="P2" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="21"/>
       <c r="R2" s="21"/>
@@ -1094,10 +1098,10 @@
         <v>129530</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="D3" s="7">
         <v>4235601</v>
@@ -1106,18 +1110,18 @@
         <v>21</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>24</v>
       </c>
       <c r="K3" s="21"/>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="25" t="s">
         <v>25</v>
       </c>
       <c r="M3" s="21"/>
@@ -1134,30 +1138,30 @@
         <v>96640</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>33</v>
       </c>
       <c r="D4" s="9">
         <v>2779849</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="22" t="s">
-        <v>37</v>
-      </c>
       <c r="K4" s="21"/>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="25" t="s">
         <v>25</v>
       </c>
       <c r="M4" s="21"/>
@@ -1170,7 +1174,9 @@
       <c r="T4" s="21"/>
     </row>
     <row r="5" spans="1:20" ht="70.5" customHeight="1">
-      <c r="A5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="B5" s="7" t="s">
         <v>38</v>
       </c>
@@ -1179,7 +1185,7 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1189,7 +1195,7 @@
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="25" t="s">
         <v>41</v>
       </c>
       <c r="M5" s="21"/>
@@ -1202,12 +1208,14 @@
       <c r="T5" s="21"/>
     </row>
     <row r="6" spans="1:20" ht="70.5" customHeight="1">
-      <c r="A6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="B6" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="14" t="s">
@@ -1217,11 +1225,11 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="25" t="s">
         <v>41</v>
       </c>
       <c r="M6" s="21"/>
@@ -1361,7 +1369,7 @@
       </c>
       <c r="J2" s="17"/>
       <c r="K2" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="70.5" customHeight="1">
@@ -1369,10 +1377,10 @@
         <v>129530</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="D3" s="7">
         <v>4235601</v>
@@ -1381,11 +1389,11 @@
         <v>21</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>24</v>
@@ -1397,26 +1405,26 @@
         <v>96640</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>33</v>
       </c>
       <c r="D4" s="9">
         <v>2779849</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>36</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>37</v>
       </c>
       <c r="J4" s="11"/>
     </row>
@@ -1433,48 +1441,48 @@
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A6" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+      <c r="A6" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:11" ht="70.5" customHeight="1">
       <c r="A7" s="7"/>
-      <c r="B7" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="24" t="s">
+      <c r="C7" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="27"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:11" ht="50.25" customHeight="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:11" ht="70.5" customHeight="1">
       <c r="A9" s="7"/>
@@ -1486,7 +1494,7 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1498,10 +1506,10 @@
     <row r="10" spans="1:11" ht="70.5" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="14" t="s">
@@ -1510,7 +1518,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I10" s="11"/>
     </row>
@@ -1568,160 +1576,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="32" t="s">
-        <v>52</v>
+      <c r="A2" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="32"/>
+      <c r="A3" s="35"/>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="32"/>
+      <c r="A4" s="35"/>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="33" t="s">
-        <v>58</v>
+      <c r="A5" s="36" t="s">
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="33"/>
+      <c r="A6" s="36"/>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="33"/>
+      <c r="A7" s="36"/>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="33"/>
+      <c r="A8" s="36"/>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="33"/>
+      <c r="A9" s="36"/>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="34" t="s">
-        <v>68</v>
+      <c r="A10" s="37" t="s">
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="34"/>
+      <c r="A11" s="37"/>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="35" t="s">
-        <v>73</v>
+      <c r="A12" s="38" t="s">
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="35"/>
+      <c r="A13" s="38"/>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="35"/>
+      <c r="A14" s="38"/>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1736,26 +1744,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2004,8 +1992,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44303A67-529A-4945-BE6A-C68CA14BAB55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0A9EFC6-A05D-4CE3-AE4D-B8EBEE53EF96}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2013,5 +2021,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0A9EFC6-A05D-4CE3-AE4D-B8EBEE53EF96}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44303A67-529A-4945-BE6A-C68CA14BAB55}"/>
 </file>
--- a/01_Input/00_CO Validation/Argentina - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Argentina - Energy Projects.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="237" documentId="11_23CC2BB3681120A4BF81F9CCE04A2B2A088E2838" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AD75E82-A162-4527-8997-1D67BFAE2C19}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/UNDP/SEH/Energy-Moonshot-Tracker/01_Input/00_CO Validation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4901563C-C447-9E41-B73A-65B75BFAAA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="740" windowWidth="21920" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (2)" sheetId="3" r:id="rId1"/>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>Project ID</t>
   </si>
@@ -68,10 +73,7 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments </t>
+    <t>VF or Non-VF</t>
   </si>
   <si>
     <t>Tag</t>
@@ -92,6 +94,15 @@
     <t>Indirect Taxonomy</t>
   </si>
   <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
+  </si>
+  <si>
     <t>Apoyo a las políticas de ciencia, tecnología e innovación de la Provincia de Buenos Aires</t>
   </si>
   <si>
@@ -110,10 +121,7 @@
     <t>GOB</t>
   </si>
   <si>
-    <t>VF</t>
-  </si>
-  <si>
-    <t>Renewable Energy</t>
+    <t>Non-VF</t>
   </si>
   <si>
     <t>Modernización del Banco de la Nación Argentina</t>
@@ -130,6 +138,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Improved management capacity through institutional reinforcement ( digitization of several systems - </t>
     </r>
@@ -139,6 +148,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>"Solución de Banca Digital Integral"</t>
     </r>
@@ -147,6 +157,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>- ) to provide services with greater effectiveness, efficiency and transparency.</t>
     </r>
@@ -170,7 +181,10 @@
     <t>GEF</t>
   </si>
   <si>
-    <t>missing-ARG-1</t>
+    <t>Close the gap on energy access</t>
+  </si>
+  <si>
+    <t>Bioenergy</t>
   </si>
   <si>
     <t>Programa de abastecimiento de energía eléctrica a partir de fuentes renovables. Round 3</t>
@@ -182,10 +196,10 @@
     <t>Call for offers in the National and International open call Process in the MERCADO ELÉCTRICO MAYORISTA (MEM) of electric energy from renewable sources in order to celebrate a contract with COMPAÑÍA ADMINISTRADORA DEL MERCADO MAYORISTA ELÉCTRICO SOCIEDAD ANÓNIMA (CAMMESA).</t>
   </si>
   <si>
-    <t>Non-VF</t>
-  </si>
-  <si>
-    <t>missing-ARG-2</t>
+    <t>Accelerating just energy transition</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t xml:space="preserve">Programa de Uso Racional y Eficiente de la Energía (PROUREE) in Public buildings. </t>
@@ -197,6 +211,9 @@
     <t>Reduce consumption levels in National Public Administration buildings by: implementing energy efficiency improvement measures; introducing energy management criteria; promoting staff awareness of the rational use of resources.</t>
   </si>
   <si>
+    <t xml:space="preserve">Comments </t>
+  </si>
+  <si>
     <t>393.000 students from schools in Buenos Aires Province</t>
   </si>
   <si>
@@ -212,61 +229,76 @@
     <t>Pursuant to the provisions set forth in Resolutions ME&amp;M No. 71 passed on May 17th 2016 and No. 136 passed on July 25th 2016, CAMMESA calls for the presentation of  bids (the ‘Open Call for Tenders’) for the qualification of and possible award to national or foreign legal entities, for the purpose of executing renewable power purchase agreements to be signed with CAMMESA, acting in representation of Distribution Companies and Large Users of the MEM, with the aim of increasing the share of renewable sources of energy in the country energy mix, pursuant to Acts No. 26190 and No. 27191 and Decree No. 531/2016. The result was the assignment of 147 projects.</t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
     <t>Electricity Access</t>
   </si>
   <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
-  </si>
-  <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
+  </si>
+  <si>
+    <t>Number of MW installed capacity</t>
   </si>
   <si>
     <t>Clean Cooking</t>
   </si>
   <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
   </si>
   <si>
     <t>Health Services</t>
   </si>
   <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
   </si>
   <si>
     <t>Water Services</t>
   </si>
   <si>
-    <t>Access to solar water pumps</t>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
   </si>
   <si>
     <t>Education Services</t>
   </si>
   <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -281,13 +313,10 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -296,22 +325,19 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
-  </si>
-  <si>
-    <t>Other</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Any other type of beneficiary (please specify justification in Notes)</t>
@@ -321,7 +347,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="13" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,12 +389,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -393,49 +428,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -456,27 +470,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -557,116 +556,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -973,293 +1008,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D49CC08-9FC3-4E60-A881-BEAD0496C730}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="7" width="35.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="61.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="7" width="35.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="25" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="21"/>
-    </row>
-    <row r="2" spans="1:20" ht="95.25" customHeight="1">
-      <c r="A2" s="7">
+      <c r="T1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>100551</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4">
         <v>2317196</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10" t="s">
+      <c r="E2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="F2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="25" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21" t="s">
+      <c r="J2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-    </row>
-    <row r="3" spans="1:20" ht="70.5" customHeight="1">
-      <c r="A3" s="7">
+      <c r="K2" s="18"/>
+      <c r="L2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="30"/>
+    </row>
+    <row r="3" spans="1:21" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>129530</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4235601</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="7">
-        <v>4235601</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-    </row>
-    <row r="4" spans="1:20" ht="70.5" customHeight="1">
-      <c r="A4" s="7">
+      <c r="M3" s="22"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="30"/>
+    </row>
+    <row r="4" spans="1:21" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>96640</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="9">
+      <c r="C4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6">
         <v>2779849</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-    </row>
-    <row r="5" spans="1:20" ht="70.5" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="J4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="K4" s="18"/>
+      <c r="L4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="22"/>
+      <c r="N4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
+      <c r="T4" s="22"/>
+      <c r="U4" s="30"/>
+    </row>
+    <row r="5" spans="1:21" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="25" t="s">
+      <c r="C5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-    </row>
-    <row r="6" spans="1:20" ht="70.5" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7" t="s">
+      <c r="T5" s="22"/>
+      <c r="U5" s="30"/>
+    </row>
+    <row r="6" spans="1:21" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="B8" s="16"/>
+      <c r="C6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="30"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B8" s="13"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O19" xr:uid="{F4DDEA8B-4EC6-411F-9FCC-76216BA6FDD1}">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N19" xr:uid="{F4DDEA8B-4EC6-411F-9FCC-76216BA6FDD1}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P19" xr:uid="{75F8E8E7-CC69-442D-A000-075E2FF88259}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O7:P19" xr:uid="{75F8E8E7-CC69-442D-A000-075E2FF88259}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q19" xr:uid="{F973FA1A-089D-4C79-A700-72BFA2BFDC4C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P6 Q7:Q19" xr:uid="{F973FA1A-089D-4C79-A700-72BFA2BFDC4C}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R19" xr:uid="{DD738E2E-6539-4C65-9554-156954810363}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6 R7:R19" xr:uid="{DD738E2E-6539-4C65-9554-156954810363}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S19" xr:uid="{70DDB3A3-9878-4B4A-873E-88C96CBB65F1}">
-      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O6" xr:uid="{FA3EE996-C373-4383-A905-47D38751E1B9}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M6" xr:uid="{35601BA0-70C1-431C-878F-1C755994E4C9}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T6" xr:uid="{D11E1998-25CE-48E5-AD25-C3B2677FA947}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S6" xr:uid="{3543A51C-0EAB-4992-B977-327CADE6A09B}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Other, Unknown"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L6" xr:uid="{7CB88684-24FD-4793-B8D6-FA4B76D5608F}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R6" xr:uid="{4F05FB49-9D0F-4A91-95FF-A13B21DDF709}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1273,11 +1340,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{93205778-3A57-4197-8B2E-62E93188F1D4}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EEB941C2-419E-4F95-8F6D-AB13A598E427}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E4</xm:sqref>
+          <xm:sqref>E2:E6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1293,237 +1360,237 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="61.28515625" customWidth="1"/>
-    <col min="9" max="9" width="32.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="61.33203125" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="95.25" customHeight="1">
-      <c r="A2" s="7">
+      <c r="K1" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>100551</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4">
         <v>2317196</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10" t="s">
+      <c r="E2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="F2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="19" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>129530</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4235601</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>96640</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2779849</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="38"/>
+    </row>
+    <row r="8" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="38"/>
+    </row>
+    <row r="9" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="70.5" customHeight="1">
-      <c r="A3" s="7">
-        <v>129530</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="7">
-        <v>4235601</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" ht="70.5" customHeight="1">
-      <c r="A4" s="7">
-        <v>96640</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="9">
-        <v>2779849</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" ht="70.5" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="30"/>
-    </row>
-    <row r="8" spans="1:11" ht="50.25" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="30"/>
-    </row>
-    <row r="9" spans="1:11" ht="70.5" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" ht="70.5" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="B12" s="16"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1551,7 +1618,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E5 E7</xm:sqref>
         </x14:dataValidation>
@@ -1563,182 +1630,194 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="52.7109375" customWidth="1"/>
+    <col min="1" max="2" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B1" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="35"/>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="35"/>
-      <c r="B4" t="s">
+    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="36"/>
-      <c r="B6" t="s">
+      <c r="B6" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="36"/>
-      <c r="B7" t="s">
+      <c r="B7" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="36"/>
-      <c r="B8" t="s">
+      <c r="B8" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="36"/>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="37"/>
-      <c r="B11" t="s">
+      <c r="B11" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="38" t="s">
+      <c r="B12" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="38"/>
-      <c r="B13" t="s">
+      <c r="B14" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="38"/>
-      <c r="B14" t="s">
+      <c r="B15" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="B16" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B17" s="24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
+    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B18" s="32" t="s">
         <v>85</v>
       </c>
     </row>
+    <row r="19" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2013,13 +2092,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0A9EFC6-A05D-4CE3-AE4D-B8EBEE53EF96}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0A9EFC6-A05D-4CE3-AE4D-B8EBEE53EF96}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
+    <ds:schemaRef ds:uri="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8FBA582-46B7-4CF5-B14F-DBE438B4662F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8FBA582-46B7-4CF5-B14F-DBE438B4662F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
+    <ds:schemaRef ds:uri="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44303A67-529A-4945-BE6A-C68CA14BAB55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44303A67-529A-4945-BE6A-C68CA14BAB55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_Input/00_CO Validation/Argentina - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Argentina - Energy Projects.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27324"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/UNDP/SEH/Energy-Moonshot-Tracker/01_Input/00_CO Validation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4901563C-C447-9E41-B73A-65B75BFAAA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="286" documentId="11_23CC2BB3681120A4BF81F9CCE04A2B2A088E2838" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93413F23-3B57-4329-9CC3-DB5977830A53}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="740" windowWidth="21920" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (2)" sheetId="3" r:id="rId1"/>
@@ -138,7 +133,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Improved management capacity through institutional reinforcement ( digitization of several systems - </t>
     </r>
@@ -148,7 +142,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>"Solución de Banca Digital Integral"</t>
     </r>
@@ -157,7 +150,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>- ) to provide services with greater effectiveness, efficiency and transparency.</t>
     </r>
@@ -347,7 +339,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,7 +351,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,14 +380,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -433,14 +422,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -667,6 +654,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -675,33 +689,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1010,32 +997,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D49CC08-9FC3-4E60-A881-BEAD0496C730}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="7" width="35.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="61.33203125" customWidth="1"/>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="7" width="35.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="61.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1100,7 +1087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="95.25" customHeight="1">
       <c r="A2" s="4">
         <v>100551</v>
       </c>
@@ -1141,7 +1128,7 @@
       <c r="T2" s="22"/>
       <c r="U2" s="30"/>
     </row>
-    <row r="3" spans="1:21" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="70.5" customHeight="1">
       <c r="A3" s="4">
         <v>129530</v>
       </c>
@@ -1182,7 +1169,7 @@
       <c r="T3" s="22"/>
       <c r="U3" s="30"/>
     </row>
-    <row r="4" spans="1:21" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="70.5" customHeight="1">
       <c r="A4" s="4">
         <v>96640</v>
       </c>
@@ -1227,7 +1214,7 @@
       <c r="T4" s="22"/>
       <c r="U4" s="30"/>
     </row>
-    <row r="5" spans="1:21" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="70.5" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>40</v>
@@ -1262,7 +1249,7 @@
       <c r="T5" s="22"/>
       <c r="U5" s="30"/>
     </row>
-    <row r="6" spans="1:21" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="70.5" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>45</v>
@@ -1293,7 +1280,7 @@
       <c r="T6" s="22"/>
       <c r="U6" s="30"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="B8" s="13"/>
     </row>
   </sheetData>
@@ -1360,20 +1347,20 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="61.33203125" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" customWidth="1"/>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="61.28515625" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1408,7 +1395,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="95.25" customHeight="1">
       <c r="A2" s="4">
         <v>100551</v>
       </c>
@@ -1439,7 +1426,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="70.5" customHeight="1">
       <c r="A3" s="4">
         <v>129530</v>
       </c>
@@ -1467,7 +1454,7 @@
       </c>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="70.5" customHeight="1">
       <c r="A4" s="4">
         <v>96640</v>
       </c>
@@ -1495,7 +1482,7 @@
       </c>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="14.25" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1507,51 +1494,51 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A6" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="70.5" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="36" t="s">
+      <c r="D7" s="38"/>
+      <c r="E7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="35" t="s">
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="38"/>
-    </row>
-    <row r="8" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="35"/>
+    </row>
+    <row r="8" spans="1:11" ht="50.25" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="38"/>
-    </row>
-    <row r="9" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="32"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="35"/>
+    </row>
+    <row r="9" spans="1:11" ht="70.5" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>40</v>
@@ -1570,7 +1557,7 @@
       </c>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="70.5" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>45</v>
@@ -1589,7 +1576,7 @@
       </c>
       <c r="I10" s="8"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="B12" s="13"/>
     </row>
   </sheetData>
@@ -1636,12 +1623,12 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="52.6640625" customWidth="1"/>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
@@ -1649,171 +1636,171 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="40" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="40" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="40" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="40" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="96" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="40" t="s">
         <v>61</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="40" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="40" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="40" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="41" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="41" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="40" t="s">
         <v>73</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="41" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="41" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="40" t="s">
         <v>82</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="41" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="64" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="41" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="42" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="41" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1823,8 +1810,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -1849,6 +1836,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1928,6 +1916,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2092,39 +2085,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0A9EFC6-A05D-4CE3-AE4D-B8EBEE53EF96}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
-    <ds:schemaRef ds:uri="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83B4E4F8-53F8-462D-8DBD-A2C0C8BEE203}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8FBA582-46B7-4CF5-B14F-DBE438B4662F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
-    <ds:schemaRef ds:uri="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8FBA582-46B7-4CF5-B14F-DBE438B4662F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44303A67-529A-4945-BE6A-C68CA14BAB55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44303A67-529A-4945-BE6A-C68CA14BAB55}"/>
 </file>